--- a/sofaplayer/La_Liga/Real Oviedo_stats.xlsx
+++ b/sofaplayer/La_Liga/Real Oviedo_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>976104</v>
       </c>
       <c r="E2" t="n">
-        <v>6.7222222222222</v>
+        <v>6.7263157894737</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>1187</v>
+        <v>1277</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.0323</v>
+        <v>4.0826</v>
       </c>
       <c r="L2" t="n">
-        <v>395.66666666667</v>
+        <v>425.66666666667</v>
       </c>
       <c r="M2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" t="n">
         <v>10</v>
@@ -1068,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>13.04347826087</v>
+        <v>12.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -1098,43 +1098,43 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.58798895</v>
+        <v>1.5929393</v>
       </c>
       <c r="AB2" t="n">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="AC2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="AF2" t="n">
-        <v>74.698795180723</v>
+        <v>73.962264150943</v>
       </c>
       <c r="AG2" t="n">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AH2" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ2" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
-        <v>58.333333333333</v>
+        <v>61.538461538462</v>
       </c>
       <c r="AM2" t="n">
         <v>1</v>
@@ -1146,19 +1146,19 @@
         <v>7</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR2" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AS2" t="n">
         <v>7</v>
       </c>
       <c r="AT2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU2" t="n">
         <v>4</v>
@@ -1173,40 +1173,40 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>71.428571428571</v>
+        <v>70.27027027027</v>
       </c>
       <c r="BA2" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="BB2" t="n">
-        <v>51.914893617021</v>
+        <v>51.372549019608</v>
       </c>
       <c r="BC2" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BD2" t="n">
-        <v>58.041958041958</v>
+        <v>57.516339869281</v>
       </c>
       <c r="BE2" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="BF2" t="n">
-        <v>42.391304347826</v>
+        <v>42.156862745098</v>
       </c>
       <c r="BG2" t="n">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="BH2" t="n">
         <v>29</v>
       </c>
       <c r="BI2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BJ2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BK2" t="n">
         <v>2</v>
@@ -1221,28 +1221,28 @@
         <v>2</v>
       </c>
       <c r="BO2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>121</v>
+        <v>127.8</v>
       </c>
       <c r="BR2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT2" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="BU2" t="n">
         <v>2</v>
       </c>
       <c r="BV2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BW2" t="n">
         <v>1</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
         <v>22</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>18</v>
       </c>
       <c r="CC2" t="n">
         <v>8</v>
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
@@ -1308,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CS2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="CT2" t="n">
         <v>2</v>
       </c>
       <c r="CU2" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="CV2" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DA2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DB2" t="n">
-        <v>75.862068965517</v>
+        <v>71.875</v>
       </c>
       <c r="DC2" t="n">
         <v>1</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="DG2" t="n">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DJ2" t="n">
         <v>2134608</v>
@@ -1745,16 +1745,16 @@
         <v>1086128</v>
       </c>
       <c r="E4" t="n">
-        <v>6.475</v>
+        <v>6.4692307692308</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1763,13 +1763,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.154</v>
+        <v>1.2118</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
         <v>2</v>
@@ -1811,10 +1811,10 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.04323459</v>
+        <v>0.04323878</v>
       </c>
       <c r="AB4" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -1823,16 +1823,16 @@
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF4" t="n">
-        <v>69.387755102041</v>
+        <v>67.30769230769199</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>18</v>
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="AR4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS4" t="n">
         <v>3</v>
@@ -1907,7 +1907,7 @@
         <v>25</v>
       </c>
       <c r="BG4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BH4" t="n">
         <v>2</v>
@@ -1937,22 +1937,22 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>77.7</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="BR4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS4" t="n">
         <v>1</v>
       </c>
       <c r="BT4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="DG4" t="n">
         <v>28</v>
@@ -2101,16 +2101,16 @@
         <v>17651</v>
       </c>
       <c r="E5" t="n">
-        <v>6.8666666666667</v>
+        <v>6.8461538461538</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2167,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.04797045</v>
+        <v>1.05181226</v>
       </c>
       <c r="AB5" t="n">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="AC5" t="n">
         <v>1</v>
@@ -2179,46 +2179,46 @@
         <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="AF5" t="n">
-        <v>89.328063241107</v>
+        <v>88.560885608856</v>
       </c>
       <c r="AG5" t="n">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="AH5" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AJ5" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>75.75757575757601</v>
+        <v>74.28571428571399</v>
       </c>
       <c r="AM5" t="n">
         <v>8</v>
       </c>
       <c r="AN5" t="n">
-        <v>22.222222222222</v>
+        <v>21.621621621622</v>
       </c>
       <c r="AO5" t="n">
         <v>1</v>
       </c>
       <c r="AP5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ5" t="n">
         <v>3</v>
       </c>
       <c r="AR5" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AS5" t="n">
         <v>8</v>
@@ -2245,31 +2245,31 @@
         <v>50</v>
       </c>
       <c r="BA5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BB5" t="n">
-        <v>59.459459459459</v>
+        <v>62.5</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD5" t="n">
-        <v>60</v>
+        <v>62.162162162162</v>
       </c>
       <c r="BE5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF5" t="n">
-        <v>50</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BG5" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="BH5" t="n">
         <v>3</v>
       </c>
       <c r="BI5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>82.40000000000001</v>
+        <v>89</v>
       </c>
       <c r="BR5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="BU5" t="n">
         <v>1</v>
@@ -2329,10 +2329,10 @@
         <v>1</v>
       </c>
       <c r="CC5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CD5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CE5" t="n">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>6</v>
       </c>
       <c r="CT5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CU5" t="n">
         <v>15</v>
@@ -2398,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DA5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DB5" t="n">
-        <v>50</v>
+        <v>54.545454545455</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="DG5" t="n">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2457,16 +2457,16 @@
         <v>942836</v>
       </c>
       <c r="E6" t="n">
-        <v>6.8619047619048</v>
+        <v>6.85</v>
       </c>
       <c r="F6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>1250</v>
+        <v>1307</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -2475,13 +2475,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.2953</v>
+        <v>1.3118</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" t="n">
         <v>6</v>
@@ -2523,10 +2523,10 @@
         <v>2</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.69125533</v>
+        <v>2.69237916</v>
       </c>
       <c r="AB6" t="n">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="AC6" t="n">
         <v>1</v>
@@ -2535,46 +2535,46 @@
         <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AF6" t="n">
-        <v>80.9375</v>
+        <v>80.53892215568899</v>
       </c>
       <c r="AG6" t="n">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="AH6" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AI6" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AJ6" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AL6" t="n">
-        <v>69.565217391304</v>
+        <v>68.75</v>
       </c>
       <c r="AM6" t="n">
         <v>20</v>
       </c>
       <c r="AN6" t="n">
-        <v>27.777777777778</v>
+        <v>27.027027027027</v>
       </c>
       <c r="AO6" t="n">
         <v>3</v>
       </c>
       <c r="AP6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>11</v>
       </c>
       <c r="AR6" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AS6" t="n">
         <v>21</v>
@@ -2595,22 +2595,22 @@
         <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AZ6" t="n">
-        <v>57.5</v>
+        <v>57.317073170732</v>
       </c>
       <c r="BA6" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="BB6" t="n">
-        <v>50.331125827815</v>
+        <v>50</v>
       </c>
       <c r="BC6" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BD6" t="n">
-        <v>51.369863013699</v>
+        <v>50.993377483444</v>
       </c>
       <c r="BE6" t="n">
         <v>1</v>
@@ -2619,7 +2619,7 @@
         <v>20</v>
       </c>
       <c r="BG6" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="BH6" t="n">
         <v>6</v>
@@ -2628,7 +2628,7 @@
         <v>9</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK6" t="n">
         <v>1</v>
@@ -2649,22 +2649,22 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>144.1</v>
+        <v>150.7</v>
       </c>
       <c r="BR6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS6" t="n">
         <v>2</v>
       </c>
       <c r="BT6" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -2676,16 +2676,16 @@
         <v>0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CA6" t="n">
         <v>13</v>
       </c>
       <c r="CB6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CC6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CD6" t="n">
         <v>20</v>
@@ -2733,13 +2733,13 @@
         <v>15</v>
       </c>
       <c r="CS6" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="CT6" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="CU6" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="CV6" t="n">
         <v>4</v>
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="DA6" t="n">
         <v>13</v>
       </c>
       <c r="DB6" t="n">
-        <v>65</v>
+        <v>61.904761904762</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="DG6" t="n">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2813,16 +2813,16 @@
         <v>905639</v>
       </c>
       <c r="E7" t="n">
-        <v>6.5538461538462</v>
+        <v>6.5642857142857</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>794</v>
+        <v>859</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.110783</v>
+        <v>0.11470574</v>
       </c>
       <c r="AB7" t="n">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -2891,52 +2891,52 @@
         <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="AF7" t="n">
-        <v>87.735849056604</v>
+        <v>86.510263929619</v>
       </c>
       <c r="AG7" t="n">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="AH7" t="n">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AI7" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AJ7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>70.833333333333</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP7" t="n">
         <v>16</v>
       </c>
-      <c r="AL7" t="n">
-        <v>69.565217391304</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>13</v>
-      </c>
       <c r="AQ7" t="n">
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AS7" t="n">
         <v>6</v>
       </c>
       <c r="AT7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="n">
         <v>2</v>
@@ -2957,28 +2957,28 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA7" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BB7" t="n">
-        <v>39.344262295082</v>
+        <v>41.791044776119</v>
       </c>
       <c r="BC7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BD7" t="n">
-        <v>40.425531914894</v>
+        <v>43.137254901961</v>
       </c>
       <c r="BE7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF7" t="n">
-        <v>35.714285714286</v>
+        <v>37.5</v>
       </c>
       <c r="BG7" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="BH7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI7" t="n">
         <v>4</v>
@@ -2999,22 +2999,22 @@
         <v>1</v>
       </c>
       <c r="BO7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>85.2</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="BR7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS7" t="n">
         <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>11</v>
       </c>
       <c r="CK7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL7" t="n">
         <v>0</v>
@@ -3095,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="CU7" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="CV7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3110,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DA7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DB7" t="n">
-        <v>76.92307692307701</v>
+        <v>68.75</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="DG7" t="n">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3169,65 +3169,65 @@
         <v>1008037</v>
       </c>
       <c r="E8" t="n">
-        <v>6.54</v>
+        <v>6.5857142857143</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1406</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.8276</v>
+      </c>
+      <c r="L8" t="n">
+        <v>468.66666666667</v>
+      </c>
+      <c r="M8" t="n">
+        <v>39</v>
+      </c>
+      <c r="N8" t="n">
         <v>17</v>
       </c>
-      <c r="H8" t="n">
-        <v>1316</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.6529</v>
-      </c>
-      <c r="L8" t="n">
-        <v>658</v>
-      </c>
-      <c r="M8" t="n">
-        <v>37</v>
-      </c>
-      <c r="N8" t="n">
-        <v>16</v>
-      </c>
       <c r="O8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7.6923076923077</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>3</v>
       </c>
-      <c r="P8" t="n">
-        <v>5.4054054054054</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>2</v>
-      </c>
       <c r="Y8" t="n">
         <v>1</v>
       </c>
@@ -3235,34 +3235,34 @@
         <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.82584342</v>
+        <v>0.83453092</v>
       </c>
       <c r="AB8" t="n">
-        <v>709</v>
+        <v>756</v>
       </c>
       <c r="AC8" t="n">
         <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="AF8" t="n">
-        <v>84.63611859838301</v>
+        <v>83.71501272264599</v>
       </c>
       <c r="AG8" t="n">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="AH8" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AI8" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AJ8" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AK8" t="n">
         <v>7</v>
@@ -3274,22 +3274,22 @@
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>17.142857142857</v>
+        <v>15.789473684211</v>
       </c>
       <c r="AO8" t="n">
         <v>5</v>
       </c>
       <c r="AP8" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
         <v>11</v>
       </c>
       <c r="AR8" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AS8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT8" t="n">
         <v>9</v>
@@ -3307,41 +3307,41 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ8" t="n">
-        <v>30.15873015873</v>
+        <v>29.411764705882</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BB8" t="n">
-        <v>34.895833333333</v>
+        <v>35.714285714286</v>
       </c>
       <c r="BC8" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="BD8" t="n">
-        <v>35.542168674699</v>
+        <v>36.46408839779</v>
       </c>
       <c r="BE8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF8" t="n">
-        <v>30.769230769231</v>
+        <v>31.034482758621</v>
       </c>
       <c r="BG8" t="n">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="BH8" t="n">
         <v>32</v>
       </c>
       <c r="BI8" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ8" t="n">
         <v>15</v>
       </c>
-      <c r="BJ8" t="n">
-        <v>14</v>
-      </c>
       <c r="BK8" t="n">
         <v>1</v>
       </c>
@@ -3355,28 +3355,28 @@
         <v>1</v>
       </c>
       <c r="BO8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>130.8</v>
+        <v>138.3</v>
       </c>
       <c r="BR8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT8" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="BU8" t="n">
         <v>1</v>
       </c>
       <c r="BV8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -3388,13 +3388,13 @@
         <v>0</v>
       </c>
       <c r="BZ8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CA8" t="n">
         <v>16</v>
       </c>
       <c r="CB8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="CC8" t="n">
         <v>12</v>
@@ -3418,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CK8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL8" t="n">
         <v>0</v>
@@ -3442,19 +3442,19 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS8" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="CT8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CU8" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="CV8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>11</v>
       </c>
       <c r="DA8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="DB8" t="n">
-        <v>72</v>
+        <v>72.413793103448</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3484,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="DG8" t="n">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3881,16 +3881,16 @@
         <v>1201412</v>
       </c>
       <c r="E10" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3899,13 +3899,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0872</v>
+        <v>0.1113</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -3947,10 +3947,10 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.657604</v>
+        <v>0.65958547</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AC10" t="n">
         <v>1</v>
@@ -3959,82 +3959,82 @@
         <v>1</v>
       </c>
       <c r="AE10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>91.666666666667</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH10" t="n">
         <v>4</v>
       </c>
-      <c r="AF10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
         <v>4</v>
       </c>
-      <c r="AH10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI10" t="n">
+      <c r="AS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA10" t="n">
         <v>3</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="BB10" t="n">
+        <v>21.428571428571</v>
+      </c>
+      <c r="BC10" t="n">
         <v>3</v>
       </c>
-      <c r="AS10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>28.571428571429</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>2</v>
-      </c>
       <c r="BD10" t="n">
-        <v>33.333333333333</v>
+        <v>27.272727272727</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
@@ -4043,131 +4043,131 @@
         <v>0</v>
       </c>
       <c r="BG10" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>11</v>
+      </c>
+      <c r="CV10" t="n">
         <v>3</v>
       </c>
-      <c r="BH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU10" t="n">
-        <v>5</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>1</v>
-      </c>
       <c r="CW10" t="n">
         <v>0</v>
       </c>
@@ -4196,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DG10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4593,16 +4593,16 @@
         <v>822379</v>
       </c>
       <c r="E12" t="n">
-        <v>6.8294117647059</v>
+        <v>6.8055555555556</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>1394</v>
+        <v>1475</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4659,10 +4659,10 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.39238165</v>
+        <v>1.39604286</v>
       </c>
       <c r="AB12" t="n">
-        <v>863</v>
+        <v>908</v>
       </c>
       <c r="AC12" t="n">
         <v>3</v>
@@ -4671,37 +4671,37 @@
         <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="AF12" t="n">
-        <v>85.400313971743</v>
+        <v>85.50074738415501</v>
       </c>
       <c r="AG12" t="n">
-        <v>637</v>
+        <v>669</v>
       </c>
       <c r="AH12" t="n">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="AI12" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AJ12" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>50.909090909091</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
         <v>13</v>
       </c>
       <c r="AN12" t="n">
-        <v>28.888888888889</v>
+        <v>28.260869565217</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
         <v>28</v>
@@ -4710,13 +4710,13 @@
         <v>8</v>
       </c>
       <c r="AR12" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AS12" t="n">
         <v>11</v>
       </c>
       <c r="AT12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU12" t="n">
         <v>3</v>
@@ -4737,37 +4737,37 @@
         <v>71.428571428571</v>
       </c>
       <c r="BA12" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BB12" t="n">
-        <v>54.135338345865</v>
+        <v>54.411764705882</v>
       </c>
       <c r="BC12" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BD12" t="n">
-        <v>55.652173913043</v>
+        <v>56.410256410256</v>
       </c>
       <c r="BE12" t="n">
         <v>8</v>
       </c>
       <c r="BF12" t="n">
-        <v>44.444444444444</v>
+        <v>42.105263157895</v>
       </c>
       <c r="BG12" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="BH12" t="n">
         <v>33</v>
       </c>
       <c r="BI12" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL12" t="n">
         <v>0</v>
@@ -4779,22 +4779,22 @@
         <v>4</v>
       </c>
       <c r="BO12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>116.1</v>
+        <v>122.5</v>
       </c>
       <c r="BR12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS12" t="n">
         <v>1</v>
       </c>
       <c r="BT12" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4821,10 +4821,10 @@
         <v>8</v>
       </c>
       <c r="CC12" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="CD12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4842,10 +4842,10 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CK12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL12" t="n">
         <v>0</v>
@@ -4872,13 +4872,13 @@
         <v>7</v>
       </c>
       <c r="CT12" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CU12" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CV12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="DA12" t="n">
         <v>11</v>
@@ -4908,16 +4908,16 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="DG12" t="n">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
       </c>
       <c r="DI12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DJ12" t="n">
         <v>2260346</v>
@@ -4949,16 +4949,16 @@
         <v>944629</v>
       </c>
       <c r="E13" t="n">
-        <v>6.56</v>
+        <v>6.5833333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5015,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.02507027</v>
+        <v>0.02943563</v>
       </c>
       <c r="AB13" t="n">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5027,25 +5027,25 @@
         <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="AF13" t="n">
+        <v>74.666666666667</v>
+      </c>
+      <c r="AG13" t="n">
         <v>75</v>
       </c>
-      <c r="AG13" t="n">
-        <v>44</v>
-      </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL13" t="n">
         <v>50</v>
@@ -5060,13 +5060,13 @@
         <v>1</v>
       </c>
       <c r="AP13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
         <v>3</v>
       </c>
       <c r="AR13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -5093,25 +5093,25 @@
         <v>100</v>
       </c>
       <c r="BA13" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BB13" t="n">
-        <v>42.857142857143</v>
+        <v>50</v>
       </c>
       <c r="BC13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD13" t="n">
-        <v>47.368421052632</v>
+        <v>50</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BG13" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BH13" t="n">
         <v>5</v>
@@ -5135,71 +5135,71 @@
         <v>0</v>
       </c>
       <c r="BO13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>19</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="CD13" t="n">
         <v>4</v>
       </c>
-      <c r="BP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="BR13" t="n">
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
         <v>5</v>
       </c>
-      <c r="BS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>11</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>4</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>4</v>
-      </c>
       <c r="CK13" t="n">
         <v>0</v>
       </c>
@@ -5231,28 +5231,28 @@
         <v>0</v>
       </c>
       <c r="CU13" t="n">
+        <v>13</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ13" t="n">
         <v>12</v>
       </c>
-      <c r="CV13" t="n">
-        <v>2</v>
-      </c>
-      <c r="CW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ13" t="n">
+      <c r="DA13" t="n">
         <v>6</v>
       </c>
-      <c r="DA13" t="n">
-        <v>4</v>
-      </c>
       <c r="DB13" t="n">
-        <v>57.142857142857</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5264,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="DG13" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5661,16 +5661,16 @@
         <v>882475</v>
       </c>
       <c r="E15" t="n">
-        <v>6.6238095238095</v>
+        <v>6.6363636363636</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>1181</v>
+        <v>1246</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>1.4833</v>
       </c>
       <c r="L15" t="n">
-        <v>590.5</v>
+        <v>623</v>
       </c>
       <c r="M15" t="n">
         <v>12</v>
@@ -5727,10 +5727,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.13186608</v>
+        <v>1.13868657</v>
       </c>
       <c r="AB15" t="n">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="AC15" t="n">
         <v>2</v>
@@ -5739,28 +5739,28 @@
         <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="AF15" t="n">
-        <v>83.716075156576</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="AG15" t="n">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="AH15" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AI15" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="AJ15" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
-        <v>59.090909090909</v>
+        <v>61.702127659574</v>
       </c>
       <c r="AM15" t="n">
         <v>7</v>
@@ -5772,16 +5772,16 @@
         <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
         <v>4</v>
       </c>
       <c r="AR15" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AS15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT15" t="n">
         <v>9</v>
@@ -5805,31 +5805,31 @@
         <v>69.230769230769</v>
       </c>
       <c r="BA15" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="BB15" t="n">
-        <v>52.678571428571</v>
+        <v>54.166666666667</v>
       </c>
       <c r="BC15" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="BD15" t="n">
-        <v>57.471264367816</v>
+        <v>58.064516129032</v>
       </c>
       <c r="BE15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BF15" t="n">
-        <v>36</v>
+        <v>40.740740740741</v>
       </c>
       <c r="BG15" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="BH15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BJ15" t="n">
         <v>1</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="BO15" t="n">
+        <v>23</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>146</v>
+      </c>
+      <c r="BR15" t="n">
         <v>22</v>
       </c>
-      <c r="BP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>139.1</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>21</v>
-      </c>
       <c r="BS15" t="n">
         <v>2</v>
       </c>
       <c r="BT15" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5889,10 +5889,10 @@
         <v>10</v>
       </c>
       <c r="CC15" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="CD15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>19</v>
       </c>
       <c r="CK15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
@@ -5943,7 +5943,7 @@
         <v>25</v>
       </c>
       <c r="CU15" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="CV15" t="n">
         <v>16</v>
@@ -5958,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DA15" t="n">
         <v>8</v>
       </c>
       <c r="DB15" t="n">
-        <v>36.363636363636</v>
+        <v>34.782608695652</v>
       </c>
       <c r="DC15" t="n">
         <v>1</v>
@@ -5976,10 +5976,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DG15" t="n">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6017,16 +6017,16 @@
         <v>606346</v>
       </c>
       <c r="E16" t="n">
-        <v>6.94</v>
+        <v>6.95</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>414</v>
+        <v>504</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6083,10 +6083,10 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.16985172</v>
+        <v>0.1716905</v>
       </c>
       <c r="AB16" t="n">
-        <v>263</v>
+        <v>346</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -6095,28 +6095,28 @@
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="AF16" t="n">
-        <v>88.78048780487801</v>
+        <v>87.360594795539</v>
       </c>
       <c r="AG16" t="n">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="AH16" t="n">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="AI16" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AJ16" t="n">
         <v>9</v>
       </c>
       <c r="AK16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>45.833333333333</v>
+        <v>38.235294117647</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -6125,184 +6125,184 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>28</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>62.222222222222</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>58.823529411765</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>18</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>64.28571428571399</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>39</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>34</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>21</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
         <v>8</v>
       </c>
-      <c r="AP16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>54.545454545455</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>45.454545454545</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>13</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>59.090909090909</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>28</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>7</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>23</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC16" t="n">
+      <c r="CK16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU16" t="n">
         <v>17</v>
       </c>
-      <c r="CD16" t="n">
-        <v>8</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>7</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>15</v>
-      </c>
       <c r="CV16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6314,10 +6314,10 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="DA16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DB16" t="n">
         <v>100</v>
@@ -6332,13 +6332,13 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="DG16" t="n">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="DH16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DI16" t="n">
         <v>8</v>
@@ -6729,16 +6729,16 @@
         <v>892235</v>
       </c>
       <c r="E18" t="n">
-        <v>6.81875</v>
+        <v>6.8117647058824</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>1272</v>
+        <v>1362</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -6750,7 +6750,7 @@
         <v>0.8893</v>
       </c>
       <c r="L18" t="n">
-        <v>1272</v>
+        <v>1362</v>
       </c>
       <c r="M18" t="n">
         <v>9</v>
@@ -6795,64 +6795,64 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.33272562</v>
+        <v>0.37615512</v>
       </c>
       <c r="AB18" t="n">
-        <v>957</v>
+        <v>1048</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>623</v>
+        <v>681</v>
       </c>
       <c r="AF18" t="n">
-        <v>84.87738419618501</v>
+        <v>84.177997527812</v>
       </c>
       <c r="AG18" t="n">
-        <v>734</v>
+        <v>809</v>
       </c>
       <c r="AH18" t="n">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="AI18" t="n">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AK18" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="n">
-        <v>51.034482758621</v>
+        <v>49.056603773585</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AS18" t="n">
         <v>9</v>
       </c>
       <c r="AT18" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AU18" t="n">
         <v>1</v>
@@ -6864,7 +6864,7 @@
         <v>1</v>
       </c>
       <c r="AX18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" t="n">
         <v>2</v>
@@ -6873,28 +6873,28 @@
         <v>100</v>
       </c>
       <c r="BA18" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB18" t="n">
-        <v>62.698412698413</v>
+        <v>63.076923076923</v>
       </c>
       <c r="BC18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD18" t="n">
-        <v>49.122807017544</v>
+        <v>50</v>
       </c>
       <c r="BE18" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BF18" t="n">
-        <v>73.913043478261</v>
+        <v>73.611111111111</v>
       </c>
       <c r="BG18" t="n">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="BH18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI18" t="n">
         <v>4</v>
@@ -6915,22 +6915,22 @@
         <v>3</v>
       </c>
       <c r="BO18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>109.1</v>
+        <v>115.8</v>
       </c>
       <c r="BR18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS18" t="n">
         <v>1</v>
       </c>
       <c r="BT18" t="n">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6957,10 +6957,10 @@
         <v>2</v>
       </c>
       <c r="CC18" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="CD18" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CK18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL18" t="n">
         <v>0</v>
@@ -7002,19 +7002,19 @@
         <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CS18" t="n">
         <v>2</v>
       </c>
       <c r="CT18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU18" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CV18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7026,13 +7026,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="DA18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DB18" t="n">
-        <v>43.478260869565</v>
+        <v>45.833333333333</v>
       </c>
       <c r="DC18" t="n">
         <v>1</v>
@@ -7044,16 +7044,16 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>476</v>
+        <v>521</v>
       </c>
       <c r="DG18" t="n">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="DH18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DI18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DJ18" t="n">
         <v>2260328</v>
@@ -7085,16 +7085,16 @@
         <v>945404</v>
       </c>
       <c r="E19" t="n">
-        <v>6.63</v>
+        <v>6.6181818181818</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>586</v>
+        <v>676</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0595</v>
+        <v>0.0805</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -7151,10 +7151,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.39915566</v>
+        <v>0.41345656</v>
       </c>
       <c r="AB19" t="n">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="AC19" t="n">
         <v>1</v>
@@ -7163,52 +7163,52 @@
         <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="AF19" t="n">
-        <v>75.480769230769</v>
+        <v>76.890756302521</v>
       </c>
       <c r="AG19" t="n">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="AH19" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="AI19" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AK19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL19" t="n">
-        <v>34.375</v>
+        <v>36.111111111111</v>
       </c>
       <c r="AM19" t="n">
         <v>8</v>
       </c>
       <c r="AN19" t="n">
-        <v>38.095238095238</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AO19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AU19" t="n">
         <v>1</v>
@@ -7229,32 +7229,32 @@
         <v>30</v>
       </c>
       <c r="BA19" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="BB19" t="n">
-        <v>50.666666666667</v>
+        <v>51.162790697674</v>
       </c>
       <c r="BC19" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="BD19" t="n">
-        <v>54.098360655738</v>
+        <v>53.623188405797</v>
       </c>
       <c r="BE19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BF19" t="n">
-        <v>35.714285714286</v>
+        <v>41.176470588235</v>
       </c>
       <c r="BG19" t="n">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="BH19" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI19" t="n">
         <v>16</v>
       </c>
-      <c r="BI19" t="n">
-        <v>14</v>
-      </c>
       <c r="BJ19" t="n">
         <v>1</v>
       </c>
@@ -7271,28 +7271,28 @@
         <v>1</v>
       </c>
       <c r="BO19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>66.3</v>
+        <v>72.8</v>
       </c>
       <c r="BR19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BS19" t="n">
         <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
       </c>
       <c r="BV19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW19" t="n">
         <v>0</v>
@@ -7307,7 +7307,7 @@
         <v>1</v>
       </c>
       <c r="CA19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB19" t="n">
         <v>4</v>
@@ -7334,10 +7334,10 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL19" t="n">
         <v>0</v>
@@ -7364,13 +7364,13 @@
         <v>10</v>
       </c>
       <c r="CT19" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="CU19" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="CV19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7382,13 +7382,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="DA19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DB19" t="n">
-        <v>52.941176470588</v>
+        <v>52.631578947368</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7400,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="DG19" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
@@ -7441,16 +7441,16 @@
         <v>844752</v>
       </c>
       <c r="E20" t="n">
-        <v>6.6571428571429</v>
+        <v>6.6533333333333</v>
       </c>
       <c r="F20" t="n">
+        <v>15</v>
+      </c>
+      <c r="G20" t="n">
         <v>14</v>
       </c>
-      <c r="G20" t="n">
-        <v>13</v>
-      </c>
       <c r="H20" t="n">
-        <v>1075</v>
+        <v>1156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7507,10 +7507,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.34424493</v>
+        <v>0.35053288</v>
       </c>
       <c r="AB20" t="n">
-        <v>704</v>
+        <v>763</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7519,28 +7519,28 @@
         <v>2</v>
       </c>
       <c r="AE20" t="n">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="AF20" t="n">
-        <v>81.924882629108</v>
+        <v>81.304347826087</v>
       </c>
       <c r="AG20" t="n">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="AH20" t="n">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="AI20" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AJ20" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>41.071428571429</v>
+        <v>37.704918032787</v>
       </c>
       <c r="AM20" t="n">
         <v>1</v>
@@ -7549,22 +7549,22 @@
         <v>4.7619047619048</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AS20" t="n">
         <v>10</v>
       </c>
       <c r="AT20" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AU20" t="n">
         <v>3</v>
@@ -7582,34 +7582,34 @@
         <v>6</v>
       </c>
       <c r="AZ20" t="n">
-        <v>37.5</v>
+        <v>35.294117647059</v>
       </c>
       <c r="BA20" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="BB20" t="n">
-        <v>55.31914893617</v>
+        <v>57.692307692308</v>
       </c>
       <c r="BC20" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="BD20" t="n">
-        <v>55.263157894737</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BE20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BF20" t="n">
-        <v>55.555555555556</v>
+        <v>60</v>
       </c>
       <c r="BG20" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="BH20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI20" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BJ20" t="n">
         <v>1</v>
@@ -7627,22 +7627,22 @@
         <v>4</v>
       </c>
       <c r="BO20" t="n">
+        <v>17</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="BR20" t="n">
         <v>15</v>
       </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>14</v>
-      </c>
       <c r="BS20" t="n">
         <v>0</v>
       </c>
       <c r="BT20" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7669,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="CC20" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CD20" t="n">
         <v>6</v>
@@ -7690,10 +7690,10 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CK20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL20" t="n">
         <v>0</v>
@@ -7717,13 +7717,13 @@
         <v>2</v>
       </c>
       <c r="CS20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CT20" t="n">
         <v>21</v>
       </c>
       <c r="CU20" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CV20" t="n">
         <v>8</v>
@@ -7738,13 +7738,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="DA20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DB20" t="n">
-        <v>66.666666666667</v>
+        <v>62.5</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7756,10 +7756,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="DG20" t="n">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
@@ -8507,16 +8507,16 @@
         <v>597876</v>
       </c>
       <c r="E23" t="n">
-        <v>6.8166666666667</v>
+        <v>6.8076923076923</v>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
         <v>9</v>
       </c>
       <c r="H23" t="n">
-        <v>859</v>
+        <v>868</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8573,34 +8573,34 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.77491591</v>
+        <v>0.80481401</v>
       </c>
       <c r="AB23" t="n">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="AC23" t="n">
         <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AF23" t="n">
-        <v>78.125</v>
+        <v>78.52760736196301</v>
       </c>
       <c r="AG23" t="n">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AH23" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AI23" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AJ23" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="n">
         <v>14</v>
@@ -8624,13 +8624,13 @@
         <v>1</v>
       </c>
       <c r="AR23" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AS23" t="n">
         <v>7</v>
       </c>
       <c r="AT23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU23" t="n">
         <v>3</v>
@@ -8699,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>81.8</v>
+        <v>88.5</v>
       </c>
       <c r="BR23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS23" t="n">
         <v>1</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="CR23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS23" t="n">
         <v>17</v>
@@ -8822,10 +8822,10 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="DG23" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="DH23" t="n">
         <v>0</v>
@@ -8863,16 +8863,16 @@
         <v>368922</v>
       </c>
       <c r="E24" t="n">
-        <v>7.4409090909091</v>
+        <v>7.3782608695652</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>1980</v>
+        <v>2070</v>
       </c>
       <c r="I24" t="n">
         <v>3</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.05624467</v>
+        <v>0.05818319</v>
       </c>
       <c r="AB24" t="n">
-        <v>989</v>
+        <v>1045</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -8939,28 +8939,28 @@
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="AF24" t="n">
-        <v>67.690253671562</v>
+        <v>67.211055276382</v>
       </c>
       <c r="AG24" t="n">
-        <v>749</v>
+        <v>796</v>
       </c>
       <c r="AH24" t="n">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="AI24" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AJ24" t="n">
         <v>20</v>
       </c>
       <c r="AK24" t="n">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AL24" t="n">
-        <v>40.664961636829</v>
+        <v>40.095465393795</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8978,13 +8978,13 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
       </c>
       <c r="AT24" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>100</v>
       </c>
       <c r="BA24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB24" t="n">
         <v>100</v>
       </c>
       <c r="BC24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD24" t="n">
         <v>100</v>
@@ -9023,13 +9023,13 @@
         <v>100</v>
       </c>
       <c r="BG24" t="n">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="BH24" t="n">
         <v>1</v>
       </c>
       <c r="BI24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ24" t="n">
         <v>0</v>
@@ -9041,28 +9041,28 @@
         <v>0</v>
       </c>
       <c r="BM24" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BN24" t="n">
         <v>6</v>
       </c>
       <c r="BO24" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BP24" t="n">
         <v>2</v>
       </c>
       <c r="BQ24" t="n">
-        <v>163.7</v>
+        <v>169.7</v>
       </c>
       <c r="BR24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9089,10 +9089,10 @@
         <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="CD24" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9101,22 +9101,22 @@
         <v>0</v>
       </c>
       <c r="CG24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CH24" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CI24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CJ24" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CK24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CM24" t="n">
         <v>21</v>
@@ -9125,7 +9125,7 @@
         <v>19</v>
       </c>
       <c r="CO24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CP24" t="n">
         <v>0</v>
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="DA24" t="n">
         <v>0</v>
@@ -9176,13 +9176,13 @@
         <v>27</v>
       </c>
       <c r="DF24" t="n">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="DG24" t="n">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="DH24" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>8.622299999999999</v>
+        <v>7.7947</v>
       </c>
     </row>
   </sheetData>
